--- a/InputData/endo-learn/SYSoCCtaSC/Start Yr Shares of Capacity Costs that are Soft Costs.xlsx
+++ b/InputData/endo-learn/SYSoCCtaSC/Start Yr Shares of Capacity Costs that are Soft Costs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\endo-learn\SYSoCCtaSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\endo-learn\SYSoCCtaSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36812C60-10F4-471D-A279-B5D2C888C3D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70FEF9A8-F197-4B2C-8100-85FE6E1A182B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="285" windowWidth="22170" windowHeight="16110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43755" yWindow="270" windowWidth="22620" windowHeight="12570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
-    <sheet name="SYSoCCtaSC-electricity" sheetId="2" r:id="rId3"/>
-    <sheet name="SYSoCCtaSC-buildings" sheetId="5" r:id="rId4"/>
+    <sheet name="Texas Notes" sheetId="6" r:id="rId3"/>
+    <sheet name="SYSoCCtaSC-electricity" sheetId="2" r:id="rId4"/>
+    <sheet name="SYSoCCtaSC-buildings" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
   <si>
     <t>Sources:</t>
   </si>
@@ -285,6 +286,60 @@
   </si>
   <si>
     <t>SYSoCCtaSC Share of Distributed Solar and Retrofitting Costs that is Labor</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy19osti/72133.pdf</t>
+  </si>
+  <si>
+    <t>estimates Texas labor costs as</t>
+  </si>
+  <si>
+    <t>$/W-dc</t>
+  </si>
+  <si>
+    <t>for fixed-tilt utility scale panels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$/W-dc </t>
+  </si>
+  <si>
+    <t>for one-axis tracker panels</t>
+  </si>
+  <si>
+    <t>https://pv-magazine-usa.com/2019/12/20/utility-scale-solar-power-as-cheap-as-75%C2%A2-per-watt-says-government-researchers/</t>
+  </si>
+  <si>
+    <t>most of the utility-scale solar in Texas is tracking (see US map figure in below source)</t>
+  </si>
+  <si>
+    <t>for most of the US states, these costs range between</t>
+  </si>
+  <si>
+    <t>for fixed-tilt</t>
+  </si>
+  <si>
+    <t>0.88--0.96</t>
+  </si>
+  <si>
+    <t>0.95--1.01</t>
+  </si>
+  <si>
+    <t>for one-axis tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so it doesn't seem like a big enough difference to try and use different numbers for Texas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was not able to find newer/better data sources for this. </t>
+  </si>
+  <si>
+    <t>I did find some good solar data below on labor costs (a major component of soft costs) for various states.</t>
+  </si>
+  <si>
+    <t>Labor costs of solar installation don't range by much across states, so it's probably safe to assume that soft costs don't change much between Texas and the US average.</t>
   </si>
 </sst>
 </file>
@@ -667,24 +722,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,137 +749,137 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="11">
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -842,23 +899,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.1328125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -869,7 +928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -880,7 +939,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -891,7 +950,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -902,7 +961,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -913,7 +972,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -924,7 +983,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -935,7 +994,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -946,7 +1005,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -957,7 +1016,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -968,7 +1027,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -979,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -990,7 +1049,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1001,30 +1060,30 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="10">
         <f>SUM(C12:C15,C7:C10)</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -1032,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1040,7 +1099,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1048,7 +1107,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1056,7 +1115,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1064,7 +1123,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1072,7 +1131,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1080,7 +1139,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1088,10 +1147,10 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1099,7 +1158,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1107,16 +1166,16 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="9">
         <f>B35*SUM(B29:B32,B27)</f>
         <v>0.29399999999999998</v>
@@ -1125,15 +1184,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B39" s="3"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -1141,7 +1200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -1149,7 +1208,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1157,7 +1216,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1224,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -1173,7 +1232,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -1181,7 +1240,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -1189,7 +1248,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -1197,7 +1256,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -1205,7 +1264,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1213,13 +1272,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="9">
         <f>B52*SUM(B46:B49,B44)</f>
         <v>0.20299999999999999</v>
@@ -1228,25 +1287,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="10">
         <f>AVERAGE(A38,A55)</f>
         <v>0.2485</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>34</v>
       </c>
@@ -1254,7 +1313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -1262,7 +1321,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -1270,7 +1329,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -1278,27 +1337,27 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="8">
         <f>B66</f>
         <v>0.41</v>
@@ -1310,26 +1369,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A306191B-9058-432D-9020-A745561F08EF}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0.89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>0.96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{143349BF-D5C7-435B-93D3-0C795AC2A260}"/>
+    <hyperlink ref="A11" r:id="rId2" xr:uid="{EE0D75AE-DBD5-4163-8115-F13ADFC4F0FE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1337,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1345,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1353,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1361,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1370,7 +1541,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1379,7 +1550,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1387,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1395,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1403,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1411,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1419,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1427,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1436,7 +1607,7 @@
         <v>0.2485</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -1445,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -1454,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -1468,27 +1639,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4726773-744F-402D-A81A-2320CC12EE84}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -1497,40 +1670,40 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" s="13"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="13"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="14"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="13"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="13"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="14"/>
     </row>
   </sheetData>
